--- a/Netbeans/ANA-ADDIX/output/data_storage/itmedia.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/itmedia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/06/news103.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/06/news111.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1912/06/news133.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/06/news036.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1912/06/news022.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/06/news060.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/06/news086.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1912/05/news017.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1912/05/news043.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1912/05/news119.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1911/08/news144.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1911/01/news005.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1910/03/news136.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1902/26/news005.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/news/articles/1812/05/news005.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1809/13/news128.html</t>
+  </si>
+  <si>
+    <t>https://www.itmedia.co.jp/business/articles/1808/27/news010.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD706"/>
@@ -434,17 +486,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +593,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +761,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +899,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +927,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -873,23 +975,58 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +1044,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
